--- a/Data binding/Search Data.xlsx
+++ b/Data binding/Search Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\damar\Documents\SKRIPSI\YukJahit\yuk-jahit-Katalon\Data binding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF8328AA-E16E-454C-ACA1-A447B214C9B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAFFEBAB-AAC1-4A08-A3BB-33E84665FB2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6105" yWindow="1695" windowWidth="21600" windowHeight="11835" xr2:uid="{C246FD13-2A4C-4ED7-87F4-8A64DF624B9A}"/>
+    <workbookView xWindow="16875" yWindow="4230" windowWidth="21600" windowHeight="11835" xr2:uid="{C246FD13-2A4C-4ED7-87F4-8A64DF624B9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>Query</t>
   </si>
@@ -36,25 +36,19 @@
     <t>Kaos</t>
   </si>
   <si>
-    <t>Kemeja</t>
-  </si>
-  <si>
-    <t>Kaos Hitam Polos</t>
-  </si>
-  <si>
-    <t>Product not found</t>
-  </si>
-  <si>
     <t>NotFound</t>
   </si>
   <si>
-    <t>;;;;;;;;;;asdasdax;;;;asdas;;;;;;</t>
-  </si>
-  <si>
     <t>Found</t>
   </si>
   <si>
     <t>RedirectToAll</t>
+  </si>
+  <si>
+    <t>Kaos putih</t>
+  </si>
+  <si>
+    <t>Product yang tidak ada</t>
   </si>
 </sst>
 </file>
@@ -406,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE61EC8-19F5-419D-A7BC-C4C20363A050}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -428,7 +422,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -436,39 +430,23 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
